--- a/OrangeHRMDemoSite-Manual TestCases.xlsx
+++ b/OrangeHRMDemoSite-Manual TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QAShastra\Projects\OrangeHRM Demo Site Manual TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7896E7E9-EFB6-45A1-8449-5848A0DE91BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428AF4E9-EC0C-49D0-AD1E-C30F0FE8284D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Page " sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="519">
   <si>
     <t>ID</t>
   </si>
@@ -4096,6 +4096,573 @@
   </si>
   <si>
     <t>Candidate Name: NonExistentCandidate</t>
+  </si>
+  <si>
+    <t>HV_TC_01</t>
+  </si>
+  <si>
+    <t>Verify Dashboard header title</t>
+  </si>
+  <si>
+    <t>5. Verify header title on Dashboard</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Application should display that header Title as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Dashboard"</t>
+    </r>
+  </si>
+  <si>
+    <t>HV_TC_02</t>
+  </si>
+  <si>
+    <t>Verify Admin header title</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Navigate to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the sidebar</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Verify header title on Admin page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Application should display that header Title as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Admin"</t>
+    </r>
+  </si>
+  <si>
+    <t>HV_TC_03</t>
+  </si>
+  <si>
+    <t>Verify PIM header title</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Navigate to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the sidebar</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Verify header title on PIM page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Application should display that header Title as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"PIM"</t>
+    </r>
+  </si>
+  <si>
+    <t>HV_TC_04</t>
+  </si>
+  <si>
+    <t>Verify Leave header title</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Navigate to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the sidebar</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Verify header title on Leave page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Application should display that header Title as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Leave"</t>
+    </r>
+  </si>
+  <si>
+    <t>HV_TC_05</t>
+  </si>
+  <si>
+    <t>Verify Time header title</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Navigate to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the sidebar</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Verify header title on Time page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Application should display that header Title as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Time"</t>
+    </r>
+  </si>
+  <si>
+    <t>HV_TC_06</t>
+  </si>
+  <si>
+    <t>Verify Recruitment header title</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Navigate to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recruitment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the sidebar</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Verify header title on Recruitment page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Application should display that header Title as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Recruitment"</t>
+    </r>
+  </si>
+  <si>
+    <t>HV_TC_07</t>
+  </si>
+  <si>
+    <t>Verify My Info header title</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Navigate to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>My Info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the sidebar</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Verify header title on My Info page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Application should display that header Title as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"My Info"</t>
+    </r>
+  </si>
+  <si>
+    <t>HV_TC_08</t>
+  </si>
+  <si>
+    <t>Verify Performance header title</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Navigate to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Performance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the sidebar</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Verify header title on Performance page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Application should display that header Title as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Performance"</t>
+    </r>
+  </si>
+  <si>
+    <t>HV_TC_09</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Navigate to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dashboard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the sidebar</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Verify header title on Dashboard page</t>
+  </si>
+  <si>
+    <t>HV_TC_10</t>
+  </si>
+  <si>
+    <t>Verify Directory header title</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Navigate to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Directory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the sidebar</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Verify header title on Directory page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Application should display that header Title as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Directory"</t>
+    </r>
+  </si>
+  <si>
+    <t>HV_TC_11</t>
+  </si>
+  <si>
+    <t>Verify Maintenance header title</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Navigate to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maintenance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the sidebar</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Verify header title on Maintenance page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Application should display that header Title as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Maintenance"</t>
+    </r>
+  </si>
+  <si>
+    <t>HV_TC_12</t>
+  </si>
+  <si>
+    <t>Verify Buzz header title</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Navigate to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buzz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the sidebar</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Verify header title on Buzz page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Application should display that header Title as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Buzz"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4192,14 +4759,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4210,20 +4771,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4509,8 +5076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4525,388 +5092,414 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="7" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="I9:I12"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J16:J18"/>
     <mergeCell ref="A19:A21"/>
@@ -4923,37 +5516,11 @@
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="H16:H18"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G19:G21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/web/index.php/auth/login" xr:uid="{9A687929-530E-493D-A165-A0F47F67BE8F}"/>
@@ -4980,544 +5547,568 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6" t="s">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="I3:I8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="H11:H16"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="A24:A25"/>
@@ -5534,45 +6125,21 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="H11:H16"/>
-    <mergeCell ref="I11:I16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="H3:H8"/>
-    <mergeCell ref="I3:I8"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5596,528 +6163,584 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="H3:H9"/>
+    <mergeCell ref="I3:I9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="H12:H17"/>
+    <mergeCell ref="I12:I17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
@@ -6132,6 +6755,1343 @@
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C63FD3D-7F7F-41AB-BC8D-70D4A45607ED}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="A2:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B361F437-BB11-45CF-8ECB-85712F0D6388}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="7" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="J6:J10"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="J11:J15"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C205510B-32BB-468D-A4DA-B17E26AED802}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="37" spans="8:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="H37" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="96">
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="A24:A25"/>
@@ -6164,295 +8124,22 @@
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="H12:H17"/>
-    <mergeCell ref="I12:I17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="F3:F9"/>
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="H3:H9"/>
-    <mergeCell ref="I3:I9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C63FD3D-7F7F-41AB-BC8D-70D4A45607ED}">
-  <dimension ref="A1:N13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="A2:I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="40.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="40">
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="A12:A13"/>
@@ -6462,14 +8149,15 @@
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I2:I6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -6478,518 +8166,13 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B361F437-BB11-45CF-8ECB-85712F0D6388}">
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
-    <col min="7" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="J20:J24"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="J11:J15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="H11:H15"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="J6:J10"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="H2:H5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C205510B-32BB-468D-A4DA-B17E26AED802}">
-  <dimension ref="H36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="36" spans="8:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="H36" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7013,29 +8196,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7067,105 +8250,105 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -7190,14 +8373,14 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -7206,208 +8389,208 @@
       <c r="E11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="10" t="s">
         <v>105</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>121</v>
       </c>
@@ -7430,14 +8613,14 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="10" t="s">
         <v>127</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -7446,37 +8629,54 @@
       <c r="E25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="H3:H9"/>
+    <mergeCell ref="I3:I9"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="H11:H16"/>
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="A22:A23"/>
@@ -7493,30 +8693,13 @@
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="F19:F21"/>
     <mergeCell ref="G19:G21"/>
-    <mergeCell ref="I11:I16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="H11:H16"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="F3:F9"/>
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="H3:H9"/>
-    <mergeCell ref="I3:I9"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7539,418 +8722,396 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I11:I17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="F11:F17"/>
-    <mergeCell ref="G11:G17"/>
-    <mergeCell ref="H11:H17"/>
     <mergeCell ref="H2:H8"/>
     <mergeCell ref="I2:I8"/>
     <mergeCell ref="A9:A10"/>
@@ -7967,6 +9128,28 @@
     <mergeCell ref="E2:E8"/>
     <mergeCell ref="F2:F8"/>
     <mergeCell ref="G2:G8"/>
+    <mergeCell ref="I11:I17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="F11:F17"/>
+    <mergeCell ref="G11:G17"/>
+    <mergeCell ref="H11:H17"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7990,437 +9173,424 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="11"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G7"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="A12:A13"/>
@@ -8437,22 +9607,35 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8480,355 +9663,379 @@
       <c r="A1" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="11"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="I3:I8"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="A19:A20"/>
@@ -8844,30 +10051,6 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="H3:H8"/>
-    <mergeCell ref="I3:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8891,518 +10074,519 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="I3:I8"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="A17:A18"/>
@@ -9419,30 +10603,29 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="H3:H8"/>
-    <mergeCell ref="I3:I8"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9465,519 +10648,501 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="11"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="I3:I8"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="A11:A15"/>
@@ -9993,15 +11158,33 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="H3:H8"/>
-    <mergeCell ref="I3:I8"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
